--- a/sankey_postdoctorate_data_all.xlsx
+++ b/sankey_postdoctorate_data_all.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="SED2016_DST_46" sheetId="1" r:id="rId1"/>
+    <sheet name="All industry divisions" sheetId="1" r:id="rId1"/>
+    <sheet name="1996, 2016 divisions and ratios" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="36">
   <si>
     <t>Table 46. Employment sector of doctorate recipients with definite postgraduation commitments for employment in the United States, by broad field of study: Selected years, 1996–2016</t>
   </si>
@@ -248,12 +249,6 @@
     <t>SOURCE: National Science Foundation, National Center for Science and Engineering Statistics, Survey of Earned Doctorates.</t>
   </si>
   <si>
-    <t>1996 total</t>
-  </si>
-  <si>
-    <t>2016 total</t>
-  </si>
-  <si>
     <t>academe</t>
   </si>
   <si>
@@ -272,22 +267,19 @@
     <t xml:space="preserve">sum </t>
   </si>
   <si>
-    <t>Likelihood an engineering grad goes into industry</t>
+    <t>Divisions by Industry</t>
   </si>
   <si>
-    <t>physical sciences</t>
+    <t>Life sciencesa</t>
   </si>
   <si>
-    <t>humanities into academia</t>
+    <t>Otherb</t>
   </si>
   <si>
-    <t>life sciences into academe</t>
+    <t>Ratios of graduates in each field going into each industry</t>
   </si>
   <si>
-    <t>life sciences into industry</t>
-  </si>
-  <si>
-    <t>academe ratio</t>
+    <t>double check %s</t>
   </si>
 </sst>
 </file>
@@ -297,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -348,6 +340,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri "/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -362,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -385,12 +395,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2D1FF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2D1FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2D1FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2D1FF"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2D1FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2D1FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2D1FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2D1FF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="372">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1383,11 +1562,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1703,13 +1957,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ48"/>
+  <dimension ref="A1:AI48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
@@ -1719,15 +1973,15 @@
     <col min="32" max="32" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35">
       <c r="A2" s="3"/>
     </row>
-    <row r="4" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="45" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1759,7 +2013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="23.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1791,7 +2045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="5">
         <v>1996</v>
       </c>
@@ -1823,7 +2077,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="5">
         <v>2001</v>
       </c>
@@ -1855,7 +2109,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="5">
         <v>2006</v>
       </c>
@@ -1887,7 +2141,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="5">
         <v>2011</v>
       </c>
@@ -1919,7 +2173,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="A10" s="5">
         <v>2016</v>
       </c>
@@ -1951,7 +2205,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="17.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1982,65 +2236,26 @@
       <c r="J11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T11">
-        <v>2016</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="1:35">
       <c r="A12" s="6">
         <v>1996</v>
       </c>
@@ -2071,74 +2286,26 @@
       <c r="J12" s="78">
         <v>0.76500000000000001</v>
       </c>
-      <c r="K12" s="332">
-        <f>B12*B6</f>
-        <v>7941.2240000000002</v>
-      </c>
-      <c r="L12" s="332">
-        <f>C12*C6</f>
-        <v>798.75599999999997</v>
-      </c>
-      <c r="M12" s="332">
-        <f t="shared" ref="M12:N12" si="0">D12*D6</f>
-        <v>253.70400000000001</v>
-      </c>
-      <c r="N12" s="332">
-        <f t="shared" si="0"/>
-        <v>377.20800000000003</v>
-      </c>
-      <c r="O12" s="332">
-        <f>F12*F6</f>
-        <v>1529.91</v>
-      </c>
-      <c r="P12" s="332">
-        <f t="shared" ref="P12:R12" si="1">G12*G6</f>
-        <v>342.48899999999998</v>
-      </c>
-      <c r="Q12" s="332">
-        <f t="shared" si="1"/>
-        <v>1908.432</v>
-      </c>
-      <c r="R12" s="332">
-        <f t="shared" si="1"/>
-        <v>1809.72</v>
-      </c>
-      <c r="S12" s="332">
-        <f>J12*J6</f>
-        <v>925.65</v>
-      </c>
-      <c r="T12" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" s="332">
-        <v>7272.03</v>
-      </c>
-      <c r="V12" s="332">
-        <v>881.28300000000002</v>
-      </c>
-      <c r="W12" s="332">
-        <v>252.8</v>
-      </c>
-      <c r="X12" s="332">
-        <v>436.30499999999995</v>
-      </c>
-      <c r="Y12" s="332">
-        <v>1542.5320000000002</v>
-      </c>
-      <c r="Z12" s="332">
-        <v>412.70699999999994</v>
-      </c>
-      <c r="AA12" s="332">
-        <v>1416.0059999999999</v>
-      </c>
-      <c r="AB12" s="332">
-        <v>1311.0240000000001</v>
-      </c>
-      <c r="AC12" s="332">
-        <v>1014.962</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="K12" s="332"/>
+      <c r="L12" s="332"/>
+      <c r="M12" s="332"/>
+      <c r="N12" s="332"/>
+      <c r="O12" s="332"/>
+      <c r="P12" s="332"/>
+      <c r="Q12" s="332"/>
+      <c r="R12" s="332"/>
+      <c r="S12" s="332"/>
+      <c r="U12" s="332"/>
+      <c r="V12" s="332"/>
+      <c r="W12" s="332"/>
+      <c r="X12" s="332"/>
+      <c r="Y12" s="332"/>
+      <c r="Z12" s="332"/>
+      <c r="AA12" s="332"/>
+      <c r="AB12" s="332"/>
+      <c r="AC12" s="332"/>
+    </row>
+    <row r="13" spans="1:35">
       <c r="A13" s="6">
         <v>2001</v>
       </c>
@@ -2170,47 +2337,17 @@
         <v>0.74399999999999999</v>
       </c>
       <c r="K13" s="332"/>
-      <c r="T13" t="s">
-        <v>28</v>
-      </c>
-      <c r="U13" s="332">
-        <v>1206.57</v>
-      </c>
-      <c r="V13" s="332">
-        <v>237.00299999999999</v>
-      </c>
-      <c r="W13" s="332">
-        <v>111.232</v>
-      </c>
-      <c r="X13" s="332">
-        <v>50.286000000000001</v>
-      </c>
-      <c r="Y13" s="332">
-        <v>352.904</v>
-      </c>
-      <c r="Z13" s="332">
-        <v>240.01400000000001</v>
-      </c>
-      <c r="AA13" s="332">
-        <v>92.453999999999994</v>
-      </c>
-      <c r="AB13" s="332">
-        <v>41.183999999999997</v>
-      </c>
-      <c r="AC13" s="332">
-        <v>73.644999999999996</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="U13" s="332"/>
+      <c r="V13" s="332"/>
+      <c r="W13" s="332"/>
+      <c r="X13" s="332"/>
+      <c r="Y13" s="332"/>
+      <c r="Z13" s="332"/>
+      <c r="AA13" s="332"/>
+      <c r="AB13" s="332"/>
+      <c r="AC13" s="332"/>
+    </row>
+    <row r="14" spans="1:35">
       <c r="A14" s="6">
         <v>2006</v>
       </c>
@@ -2241,56 +2378,21 @@
       <c r="J14" s="96">
         <v>0.747</v>
       </c>
-      <c r="T14" t="s">
-        <v>29</v>
-      </c>
-      <c r="U14" s="332">
-        <v>5641.53</v>
-      </c>
-      <c r="V14" s="332">
-        <v>865.17600000000004</v>
-      </c>
-      <c r="W14" s="332">
-        <v>830.44800000000009</v>
-      </c>
-      <c r="X14" s="332">
-        <v>915.50099999999998</v>
-      </c>
-      <c r="Y14" s="332">
-        <v>543.58600000000001</v>
-      </c>
-      <c r="Z14" s="332">
-        <v>2133.7829999999999</v>
-      </c>
-      <c r="AA14" s="332">
-        <v>116.78400000000001</v>
-      </c>
-      <c r="AB14" s="332">
-        <v>87.515999999999991</v>
-      </c>
-      <c r="AC14" s="332">
-        <v>145.95099999999999</v>
-      </c>
-      <c r="AE14" s="336">
-        <f>Z14/Z17</f>
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="AF14" s="332">
-        <v>2016</v>
-      </c>
-      <c r="AG14" s="336">
-        <f>Z12/Z17</f>
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="AI14" s="336">
-        <f>V12/V17</f>
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="AJ14">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="U14" s="332"/>
+      <c r="V14" s="332"/>
+      <c r="W14" s="332"/>
+      <c r="X14" s="332"/>
+      <c r="Y14" s="332"/>
+      <c r="Z14" s="332"/>
+      <c r="AA14" s="332"/>
+      <c r="AB14" s="332"/>
+      <c r="AC14" s="332"/>
+      <c r="AE14" s="335"/>
+      <c r="AF14" s="332"/>
+      <c r="AG14" s="335"/>
+      <c r="AI14" s="335"/>
+    </row>
+    <row r="15" spans="1:35">
       <c r="A15" s="6">
         <v>2011</v>
       </c>
@@ -2321,56 +2423,21 @@
       <c r="J15" s="105">
         <v>0.79600000000000004</v>
       </c>
-      <c r="T15" t="s">
-        <v>30</v>
-      </c>
-      <c r="U15" s="332">
-        <v>929.38499999999999</v>
-      </c>
-      <c r="V15" s="332">
-        <v>213.99299999999999</v>
-      </c>
-      <c r="W15" s="332">
-        <v>40.448</v>
-      </c>
-      <c r="X15" s="332">
-        <v>41.411999999999999</v>
-      </c>
-      <c r="Y15" s="332">
-        <v>221.988</v>
-      </c>
-      <c r="Z15" s="332">
-        <v>90.736999999999995</v>
-      </c>
-      <c r="AA15" s="332">
-        <v>131.38200000000001</v>
-      </c>
-      <c r="AB15" s="332">
-        <v>130.416</v>
-      </c>
-      <c r="AC15" s="332">
-        <v>53.56</v>
-      </c>
-      <c r="AE15" s="336">
-        <f>Z23/Z26</f>
-        <v>0.73</v>
-      </c>
-      <c r="AF15" s="332">
-        <v>1996</v>
-      </c>
-      <c r="AG15" s="336">
-        <f>Z21/Z26</f>
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="AI15" s="336">
-        <f>V21/V26</f>
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="AJ15">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="U15" s="332"/>
+      <c r="V15" s="332"/>
+      <c r="W15" s="332"/>
+      <c r="X15" s="332"/>
+      <c r="Y15" s="332"/>
+      <c r="Z15" s="332"/>
+      <c r="AA15" s="332"/>
+      <c r="AB15" s="332"/>
+      <c r="AC15" s="332"/>
+      <c r="AE15" s="335"/>
+      <c r="AF15" s="332"/>
+      <c r="AG15" s="335"/>
+      <c r="AI15" s="335"/>
+    </row>
+    <row r="16" spans="1:35">
       <c r="A16" s="6">
         <v>2016</v>
       </c>
@@ -2401,78 +2468,27 @@
       <c r="J16" s="114">
         <v>0.75800000000000001</v>
       </c>
-      <c r="K16" s="332">
-        <f>B16*B10</f>
-        <v>7272.03</v>
-      </c>
-      <c r="L16" s="332">
-        <f>C16*C10</f>
-        <v>881.28300000000002</v>
-      </c>
-      <c r="M16" s="332">
-        <f t="shared" ref="M16" si="2">D16*D10</f>
-        <v>252.8</v>
-      </c>
-      <c r="N16" s="332">
-        <f t="shared" ref="N16" si="3">E16*E10</f>
-        <v>436.30499999999995</v>
-      </c>
-      <c r="O16" s="332">
-        <f>F16*F10</f>
-        <v>1542.5320000000002</v>
-      </c>
-      <c r="P16" s="332">
-        <f t="shared" ref="P16" si="4">G16*G10</f>
-        <v>412.70699999999994</v>
-      </c>
-      <c r="Q16" s="332">
-        <f t="shared" ref="Q16" si="5">H16*H10</f>
-        <v>1416.0059999999999</v>
-      </c>
-      <c r="R16" s="332">
-        <f t="shared" ref="R16" si="6">I16*I10</f>
-        <v>1311.0240000000001</v>
-      </c>
-      <c r="S16" s="332">
-        <f>J16*J10</f>
-        <v>1014.962</v>
-      </c>
-      <c r="T16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U16" s="332">
-        <v>1271.79</v>
-      </c>
-      <c r="V16" s="332">
-        <v>101.244</v>
-      </c>
-      <c r="W16" s="332">
-        <v>27.808</v>
-      </c>
-      <c r="X16" s="332">
-        <v>32.537999999999997</v>
-      </c>
-      <c r="Y16" s="332">
-        <v>184.99</v>
-      </c>
-      <c r="Z16" s="332">
-        <v>52.685999999999993</v>
-      </c>
-      <c r="AA16" s="332">
-        <v>676.37400000000002</v>
-      </c>
-      <c r="AB16" s="332">
-        <v>144.14400000000001</v>
-      </c>
-      <c r="AC16" s="332">
-        <v>50.881999999999998</v>
-      </c>
+      <c r="K16" s="332"/>
+      <c r="L16" s="332"/>
+      <c r="M16" s="332"/>
+      <c r="N16" s="332"/>
+      <c r="O16" s="332"/>
+      <c r="P16" s="332"/>
+      <c r="Q16" s="332"/>
+      <c r="R16" s="332"/>
+      <c r="S16" s="332"/>
+      <c r="U16" s="332"/>
+      <c r="V16" s="332"/>
+      <c r="W16" s="332"/>
+      <c r="X16" s="332"/>
+      <c r="Y16" s="332"/>
+      <c r="Z16" s="332"/>
+      <c r="AA16" s="332"/>
+      <c r="AB16" s="332"/>
+      <c r="AC16" s="332"/>
       <c r="AD16" s="332"/>
-      <c r="AI16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" ht="17.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:35" ht="17.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -2503,48 +2519,18 @@
       <c r="J17" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="T17" t="s">
-        <v>32</v>
-      </c>
-      <c r="U17" s="60">
-        <v>16305</v>
-      </c>
-      <c r="V17" s="60">
-        <v>2301</v>
-      </c>
-      <c r="W17" s="60">
-        <v>1264</v>
-      </c>
-      <c r="X17" s="60">
-        <v>1479</v>
-      </c>
-      <c r="Y17" s="60">
-        <v>2846</v>
-      </c>
-      <c r="Z17" s="60">
-        <v>2927</v>
-      </c>
-      <c r="AA17" s="60">
-        <v>2433</v>
-      </c>
-      <c r="AB17" s="60">
-        <v>1716</v>
-      </c>
-      <c r="AC17" s="60">
-        <v>1339</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI17" s="336">
-        <f>V14/V17</f>
-        <v>0.376</v>
-      </c>
-      <c r="AJ17">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AI17" s="335"/>
+    </row>
+    <row r="18" spans="1:35">
       <c r="A18" s="6">
         <v>1996</v>
       </c>
@@ -2575,58 +2561,20 @@
       <c r="J18" s="132">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K18" s="332">
-        <f>B18*B6</f>
-        <v>1285.567</v>
-      </c>
-      <c r="L18" s="332">
-        <f t="shared" ref="L18:R18" si="7">C18*C6</f>
-        <v>234.38399999999999</v>
-      </c>
-      <c r="M18" s="332">
-        <f t="shared" si="7"/>
-        <v>96.162000000000006</v>
-      </c>
-      <c r="N18" s="332">
-        <f t="shared" si="7"/>
-        <v>33.045999999999999</v>
-      </c>
-      <c r="O18" s="332">
-        <f t="shared" si="7"/>
-        <v>323.745</v>
-      </c>
-      <c r="P18" s="332">
-        <f t="shared" si="7"/>
-        <v>257.47399999999999</v>
-      </c>
-      <c r="Q18" s="332">
-        <f t="shared" si="7"/>
-        <v>263.23200000000003</v>
-      </c>
-      <c r="R18" s="332">
-        <f t="shared" si="7"/>
-        <v>29.704999999999998</v>
-      </c>
-      <c r="S18" s="332">
-        <f>J18*J6</f>
-        <v>54.449999999999996</v>
-      </c>
-      <c r="AE18" s="336">
-        <f>W14/W17</f>
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="AF18" s="332">
-        <v>2016</v>
-      </c>
-      <c r="AI18" s="336">
-        <f>V23/V26</f>
-        <v>0.24500000000000002</v>
-      </c>
-      <c r="AJ18">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="K18" s="332"/>
+      <c r="L18" s="332"/>
+      <c r="M18" s="332"/>
+      <c r="N18" s="332"/>
+      <c r="O18" s="332"/>
+      <c r="P18" s="332"/>
+      <c r="Q18" s="332"/>
+      <c r="R18" s="332"/>
+      <c r="S18" s="332"/>
+      <c r="AE18" s="335"/>
+      <c r="AF18" s="332"/>
+      <c r="AI18" s="335"/>
+    </row>
+    <row r="19" spans="1:35">
       <c r="A19" s="6">
         <v>2001</v>
       </c>
@@ -2658,15 +2606,10 @@
         <v>4.7E-2</v>
       </c>
       <c r="K19" s="332"/>
-      <c r="AE19" s="336">
-        <f>W23/W26</f>
-        <v>0.626</v>
-      </c>
-      <c r="AF19" s="332">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AE19" s="335"/>
+      <c r="AF19" s="332"/>
+    </row>
+    <row r="20" spans="1:35">
       <c r="A20" s="6">
         <v>2006</v>
       </c>
@@ -2696,9 +2639,6 @@
       </c>
       <c r="J20" s="150">
         <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="T20">
-        <v>1996</v>
       </c>
       <c r="U20" s="60"/>
       <c r="V20" s="60"/>
@@ -2710,7 +2650,7 @@
       <c r="AB20" s="60"/>
       <c r="AC20" s="60"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="6">
         <v>2011</v>
       </c>
@@ -2741,44 +2681,18 @@
       <c r="J21" s="159">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="T21" s="331" t="s">
-        <v>27</v>
-      </c>
-      <c r="U21" s="332">
-        <v>7941.2240000000002</v>
-      </c>
-      <c r="V21" s="333">
-        <v>798.75599999999997</v>
-      </c>
-      <c r="W21" s="333">
-        <v>253.70400000000001</v>
-      </c>
-      <c r="X21" s="333">
-        <v>377.20800000000003</v>
-      </c>
-      <c r="Y21" s="333">
-        <v>1529.91</v>
-      </c>
-      <c r="Z21" s="333">
-        <v>342.48899999999998</v>
-      </c>
-      <c r="AA21" s="333">
-        <v>1908.432</v>
-      </c>
-      <c r="AB21" s="333">
-        <v>1809.72</v>
-      </c>
-      <c r="AC21" s="333">
-        <v>925.65</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T21" s="331"/>
+      <c r="U21" s="332"/>
+      <c r="V21" s="333"/>
+      <c r="W21" s="333"/>
+      <c r="X21" s="333"/>
+      <c r="Y21" s="333"/>
+      <c r="Z21" s="333"/>
+      <c r="AA21" s="333"/>
+      <c r="AB21" s="333"/>
+      <c r="AC21" s="333"/>
+    </row>
+    <row r="22" spans="1:35">
       <c r="A22" s="6">
         <v>2016</v>
       </c>
@@ -2809,85 +2723,30 @@
       <c r="J22" s="168">
         <v>5.5E-2</v>
       </c>
-      <c r="K22" s="332">
-        <f>B22*B10</f>
-        <v>1206.57</v>
-      </c>
-      <c r="L22" s="332">
-        <f t="shared" ref="L22:S22" si="8">C22*C10</f>
-        <v>237.00299999999999</v>
-      </c>
-      <c r="M22" s="332">
-        <f t="shared" si="8"/>
-        <v>111.232</v>
-      </c>
-      <c r="N22" s="332">
-        <f t="shared" si="8"/>
-        <v>50.286000000000001</v>
-      </c>
-      <c r="O22" s="332">
-        <f t="shared" si="8"/>
-        <v>352.904</v>
-      </c>
-      <c r="P22" s="332">
-        <f t="shared" si="8"/>
-        <v>240.01400000000001</v>
-      </c>
-      <c r="Q22" s="332">
-        <f t="shared" si="8"/>
-        <v>92.453999999999994</v>
-      </c>
-      <c r="R22" s="332">
-        <f t="shared" si="8"/>
-        <v>41.183999999999997</v>
-      </c>
-      <c r="S22" s="332">
-        <f t="shared" si="8"/>
-        <v>73.644999999999996</v>
-      </c>
-      <c r="T22" s="331" t="s">
-        <v>28</v>
-      </c>
-      <c r="U22" s="332">
-        <v>1285.567</v>
-      </c>
-      <c r="V22" s="333">
-        <v>234.38399999999999</v>
-      </c>
-      <c r="W22" s="333">
-        <v>96.162000000000006</v>
-      </c>
-      <c r="X22" s="333">
-        <v>33.045999999999999</v>
-      </c>
-      <c r="Y22" s="333">
-        <v>323.745</v>
-      </c>
-      <c r="Z22" s="333">
-        <v>257.47399999999999</v>
-      </c>
-      <c r="AA22" s="333">
-        <v>263.23200000000003</v>
-      </c>
-      <c r="AB22" s="333">
-        <v>29.704999999999998</v>
-      </c>
-      <c r="AC22" s="333">
-        <v>54.449999999999996</v>
-      </c>
-      <c r="AE22" s="336">
-        <f>AB12/AB17</f>
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="AF22" s="332">
-        <v>2016</v>
-      </c>
-      <c r="AG22" s="336">
-        <f>AB14/AB17</f>
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K22" s="332"/>
+      <c r="L22" s="332"/>
+      <c r="M22" s="332"/>
+      <c r="N22" s="332"/>
+      <c r="O22" s="332"/>
+      <c r="P22" s="332"/>
+      <c r="Q22" s="332"/>
+      <c r="R22" s="332"/>
+      <c r="S22" s="332"/>
+      <c r="T22" s="331"/>
+      <c r="U22" s="332"/>
+      <c r="V22" s="333"/>
+      <c r="W22" s="333"/>
+      <c r="X22" s="333"/>
+      <c r="Y22" s="333"/>
+      <c r="Z22" s="333"/>
+      <c r="AA22" s="333"/>
+      <c r="AB22" s="333"/>
+      <c r="AC22" s="333"/>
+      <c r="AE22" s="335"/>
+      <c r="AF22" s="332"/>
+      <c r="AG22" s="335"/>
+    </row>
+    <row r="23" spans="1:35" ht="17.25">
       <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
@@ -2918,49 +2777,21 @@
       <c r="J23" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="T23" s="331" t="s">
-        <v>29</v>
-      </c>
-      <c r="U23" s="332">
-        <v>4214.7070000000003</v>
-      </c>
-      <c r="V23" s="333">
-        <v>377.79</v>
-      </c>
-      <c r="W23" s="333">
-        <v>640.39800000000002</v>
-      </c>
-      <c r="X23" s="333">
-        <v>373.98400000000004</v>
-      </c>
-      <c r="Y23" s="333">
-        <v>507.10499999999996</v>
-      </c>
-      <c r="Z23" s="333">
-        <v>1773.1699999999998</v>
-      </c>
-      <c r="AA23" s="333">
-        <v>259.11900000000003</v>
-      </c>
-      <c r="AB23" s="333">
-        <v>114.25</v>
-      </c>
-      <c r="AC23" s="333">
-        <v>170.60999999999999</v>
-      </c>
-      <c r="AE23" s="336">
-        <f>AB21/AB26</f>
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="AF23" s="332">
-        <v>1996</v>
-      </c>
-      <c r="AG23" s="336">
-        <f>AB23/AB26</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T23" s="331"/>
+      <c r="U23" s="332"/>
+      <c r="V23" s="333"/>
+      <c r="W23" s="333"/>
+      <c r="X23" s="333"/>
+      <c r="Y23" s="333"/>
+      <c r="Z23" s="333"/>
+      <c r="AA23" s="333"/>
+      <c r="AB23" s="333"/>
+      <c r="AC23" s="333"/>
+      <c r="AE23" s="335"/>
+      <c r="AF23" s="332"/>
+      <c r="AG23" s="335"/>
+    </row>
+    <row r="24" spans="1:35">
       <c r="A24" s="6">
         <v>1996</v>
       </c>
@@ -2991,74 +2822,27 @@
       <c r="J24" s="186">
         <v>0.14099999999999999</v>
       </c>
-      <c r="K24" s="332">
-        <f>B24*B6</f>
-        <v>4214.7070000000003</v>
-      </c>
-      <c r="L24" s="332">
-        <f t="shared" ref="L24:S24" si="9">C24*C6</f>
-        <v>377.79</v>
-      </c>
-      <c r="M24" s="332">
-        <f t="shared" si="9"/>
-        <v>640.39800000000002</v>
-      </c>
-      <c r="N24" s="332">
-        <f t="shared" si="9"/>
-        <v>373.98400000000004</v>
-      </c>
-      <c r="O24" s="332">
-        <f t="shared" si="9"/>
-        <v>507.10499999999996</v>
-      </c>
-      <c r="P24" s="332">
-        <f t="shared" si="9"/>
-        <v>1773.1699999999998</v>
-      </c>
-      <c r="Q24" s="332">
-        <f t="shared" si="9"/>
-        <v>259.11900000000003</v>
-      </c>
-      <c r="R24" s="332">
-        <f t="shared" si="9"/>
-        <v>114.25</v>
-      </c>
-      <c r="S24" s="332">
-        <f t="shared" si="9"/>
-        <v>170.60999999999999</v>
-      </c>
-      <c r="T24" s="331" t="s">
-        <v>30</v>
-      </c>
-      <c r="U24" s="332">
-        <v>992.65300000000002</v>
-      </c>
-      <c r="V24" s="333">
-        <v>103.31400000000001</v>
-      </c>
-      <c r="W24" s="333">
-        <v>17.391000000000002</v>
-      </c>
-      <c r="X24" s="333">
-        <v>12.896000000000001</v>
-      </c>
-      <c r="Y24" s="333">
-        <v>349.53</v>
-      </c>
-      <c r="Z24" s="333">
-        <v>46.150999999999996</v>
-      </c>
-      <c r="AA24" s="333">
-        <v>185.08499999999998</v>
-      </c>
-      <c r="AB24" s="333">
-        <v>237.64</v>
-      </c>
-      <c r="AC24" s="333">
-        <v>42.35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="K24" s="332"/>
+      <c r="L24" s="332"/>
+      <c r="M24" s="332"/>
+      <c r="N24" s="332"/>
+      <c r="O24" s="332"/>
+      <c r="P24" s="332"/>
+      <c r="Q24" s="332"/>
+      <c r="R24" s="332"/>
+      <c r="S24" s="332"/>
+      <c r="T24" s="331"/>
+      <c r="U24" s="332"/>
+      <c r="V24" s="333"/>
+      <c r="W24" s="333"/>
+      <c r="X24" s="333"/>
+      <c r="Y24" s="333"/>
+      <c r="Z24" s="333"/>
+      <c r="AA24" s="333"/>
+      <c r="AB24" s="333"/>
+      <c r="AC24" s="333"/>
+    </row>
+    <row r="25" spans="1:35">
       <c r="A25" s="6">
         <v>2001</v>
       </c>
@@ -3089,39 +2873,19 @@
       <c r="J25" s="195">
         <v>0.151</v>
       </c>
-      <c r="T25" s="331" t="s">
-        <v>31</v>
-      </c>
-      <c r="U25" s="332">
-        <v>1822.576</v>
-      </c>
-      <c r="V25" s="333">
-        <v>27.755999999999997</v>
-      </c>
-      <c r="W25" s="333">
-        <v>16.368000000000002</v>
-      </c>
-      <c r="X25" s="333">
-        <v>8.8659999999999997</v>
-      </c>
-      <c r="Y25" s="333">
-        <v>154.71</v>
-      </c>
-      <c r="Z25" s="333">
-        <v>9.7160000000000011</v>
-      </c>
-      <c r="AA25" s="333">
-        <v>1493.019</v>
-      </c>
-      <c r="AB25" s="333">
-        <v>93.685000000000002</v>
-      </c>
-      <c r="AC25" s="333">
-        <v>15.729999999999999</v>
-      </c>
+      <c r="T25" s="331"/>
+      <c r="U25" s="332"/>
+      <c r="V25" s="333"/>
+      <c r="W25" s="333"/>
+      <c r="X25" s="333"/>
+      <c r="Y25" s="333"/>
+      <c r="Z25" s="333"/>
+      <c r="AA25" s="333"/>
+      <c r="AB25" s="333"/>
+      <c r="AC25" s="333"/>
       <c r="AD25" s="332"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="6">
         <v>2006</v>
       </c>
@@ -3152,38 +2916,18 @@
       <c r="J26" s="204">
         <v>0.11700000000000001</v>
       </c>
-      <c r="T26" s="331" t="s">
-        <v>32</v>
-      </c>
-      <c r="U26" s="60">
-        <v>16273</v>
-      </c>
-      <c r="V26" s="60">
-        <v>1542</v>
-      </c>
-      <c r="W26" s="60">
-        <v>1023</v>
-      </c>
-      <c r="X26" s="60">
-        <v>806</v>
-      </c>
-      <c r="Y26" s="60">
-        <v>2865</v>
-      </c>
-      <c r="Z26" s="60">
-        <v>2429</v>
-      </c>
-      <c r="AA26" s="60">
-        <v>4113</v>
-      </c>
-      <c r="AB26" s="60">
-        <v>2285</v>
-      </c>
-      <c r="AC26" s="60">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T26" s="331"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27" s="6">
         <v>2011</v>
       </c>
@@ -3215,7 +2959,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="6">
         <v>2016</v>
       </c>
@@ -3246,47 +2990,17 @@
       <c r="J28" s="222">
         <v>0.109</v>
       </c>
-      <c r="K28" s="332">
-        <f>B28*B10</f>
-        <v>5641.53</v>
-      </c>
-      <c r="L28" s="332">
-        <f t="shared" ref="L28:S28" si="10">C28*C10</f>
-        <v>865.17600000000004</v>
-      </c>
-      <c r="M28" s="332">
-        <f t="shared" si="10"/>
-        <v>830.44800000000009</v>
-      </c>
-      <c r="N28" s="332">
-        <f t="shared" si="10"/>
-        <v>915.50099999999998</v>
-      </c>
-      <c r="O28" s="332">
-        <f t="shared" si="10"/>
-        <v>543.58600000000001</v>
-      </c>
-      <c r="P28" s="332">
-        <f t="shared" si="10"/>
-        <v>2133.7829999999999</v>
-      </c>
-      <c r="Q28" s="332">
-        <f t="shared" si="10"/>
-        <v>116.78400000000001</v>
-      </c>
-      <c r="R28" s="332">
-        <f t="shared" si="10"/>
-        <v>87.515999999999991</v>
-      </c>
-      <c r="S28" s="332">
-        <f t="shared" si="10"/>
-        <v>145.95099999999999</v>
-      </c>
-      <c r="T28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K28" s="332"/>
+      <c r="L28" s="332"/>
+      <c r="M28" s="332"/>
+      <c r="N28" s="332"/>
+      <c r="O28" s="332"/>
+      <c r="P28" s="332"/>
+      <c r="Q28" s="332"/>
+      <c r="R28" s="332"/>
+      <c r="S28" s="332"/>
+    </row>
+    <row r="29" spans="1:35" ht="17.25">
       <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
@@ -3317,47 +3031,17 @@
       <c r="J29" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="T29">
-        <v>2016</v>
-      </c>
-      <c r="U29" s="336">
-        <f>U12/U17</f>
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="V29" s="336">
-        <f t="shared" ref="V29:AC29" si="11">V12/V17</f>
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="W29" s="336">
-        <f t="shared" si="11"/>
-        <v>0.2</v>
-      </c>
-      <c r="X29" s="336">
-        <f t="shared" si="11"/>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="Y29" s="336">
-        <f t="shared" si="11"/>
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="Z29" s="336">
-        <f t="shared" si="11"/>
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="AA29" s="336">
-        <f t="shared" si="11"/>
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="AB29" s="336">
-        <f t="shared" si="11"/>
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="AC29" s="336">
-        <f t="shared" si="11"/>
-        <v>0.75800000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="U29" s="335"/>
+      <c r="V29" s="335"/>
+      <c r="W29" s="335"/>
+      <c r="X29" s="335"/>
+      <c r="Y29" s="335"/>
+      <c r="Z29" s="335"/>
+      <c r="AA29" s="335"/>
+      <c r="AB29" s="335"/>
+      <c r="AC29" s="335"/>
+    </row>
+    <row r="30" spans="1:35">
       <c r="A30" s="6">
         <v>1996</v>
       </c>
@@ -3388,83 +3072,26 @@
       <c r="J30" s="240">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K30" s="332">
-        <f>B30*B6</f>
-        <v>992.65300000000002</v>
-      </c>
-      <c r="L30" s="332">
-        <f t="shared" ref="L30:S30" si="12">C30*C6</f>
-        <v>103.31400000000001</v>
-      </c>
-      <c r="M30" s="332">
-        <f t="shared" si="12"/>
-        <v>17.391000000000002</v>
-      </c>
-      <c r="N30" s="332">
-        <f t="shared" si="12"/>
-        <v>12.896000000000001</v>
-      </c>
-      <c r="O30" s="332">
-        <f t="shared" si="12"/>
-        <v>349.53</v>
-      </c>
-      <c r="P30" s="332">
-        <f t="shared" si="12"/>
-        <v>46.150999999999996</v>
-      </c>
-      <c r="Q30" s="332">
-        <f t="shared" si="12"/>
-        <v>185.08499999999998</v>
-      </c>
-      <c r="R30" s="332">
-        <f t="shared" si="12"/>
-        <v>237.64</v>
-      </c>
-      <c r="S30" s="332">
-        <f t="shared" si="12"/>
-        <v>42.35</v>
-      </c>
-      <c r="T30">
-        <v>1996</v>
-      </c>
-      <c r="U30" s="336">
-        <f>U21/U26</f>
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="V30" s="336">
-        <f t="shared" ref="V30:AC30" si="13">V21/V26</f>
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="W30" s="336">
-        <f t="shared" si="13"/>
-        <v>0.248</v>
-      </c>
-      <c r="X30" s="336">
-        <f t="shared" si="13"/>
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="Y30" s="336">
-        <f t="shared" si="13"/>
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="Z30" s="336">
-        <f t="shared" si="13"/>
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="AA30" s="336">
-        <f t="shared" si="13"/>
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="AB30" s="336">
-        <f t="shared" si="13"/>
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="AC30" s="336">
-        <f t="shared" si="13"/>
-        <v>0.76500000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="K30" s="332"/>
+      <c r="L30" s="332"/>
+      <c r="M30" s="332"/>
+      <c r="N30" s="332"/>
+      <c r="O30" s="332"/>
+      <c r="P30" s="332"/>
+      <c r="Q30" s="332"/>
+      <c r="R30" s="332"/>
+      <c r="S30" s="332"/>
+      <c r="U30" s="335"/>
+      <c r="V30" s="335"/>
+      <c r="W30" s="335"/>
+      <c r="X30" s="335"/>
+      <c r="Y30" s="335"/>
+      <c r="Z30" s="335"/>
+      <c r="AA30" s="335"/>
+      <c r="AB30" s="335"/>
+      <c r="AC30" s="335"/>
+    </row>
+    <row r="31" spans="1:35">
       <c r="A31" s="6">
         <v>2001</v>
       </c>
@@ -3496,7 +3123,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="6">
         <v>2006</v>
       </c>
@@ -3528,7 +3155,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="6">
         <v>2011</v>
       </c>
@@ -3560,7 +3187,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="6">
         <v>2016</v>
       </c>
@@ -3591,44 +3218,17 @@
       <c r="J34" s="276">
         <v>0.04</v>
       </c>
-      <c r="K34" s="332">
-        <f>B34*B10</f>
-        <v>929.38499999999999</v>
-      </c>
-      <c r="L34" s="332">
-        <f t="shared" ref="L34:S34" si="14">C34*C10</f>
-        <v>213.99299999999999</v>
-      </c>
-      <c r="M34" s="332">
-        <f t="shared" si="14"/>
-        <v>40.448</v>
-      </c>
-      <c r="N34" s="332">
-        <f t="shared" si="14"/>
-        <v>41.411999999999999</v>
-      </c>
-      <c r="O34" s="332">
-        <f t="shared" si="14"/>
-        <v>221.988</v>
-      </c>
-      <c r="P34" s="332">
-        <f t="shared" si="14"/>
-        <v>90.736999999999995</v>
-      </c>
-      <c r="Q34" s="332">
-        <f t="shared" si="14"/>
-        <v>131.38200000000001</v>
-      </c>
-      <c r="R34" s="332">
-        <f t="shared" si="14"/>
-        <v>130.416</v>
-      </c>
-      <c r="S34" s="332">
-        <f t="shared" si="14"/>
-        <v>53.56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K34" s="332"/>
+      <c r="L34" s="332"/>
+      <c r="M34" s="332"/>
+      <c r="N34" s="332"/>
+      <c r="O34" s="332"/>
+      <c r="P34" s="332"/>
+      <c r="Q34" s="332"/>
+      <c r="R34" s="332"/>
+      <c r="S34" s="332"/>
+    </row>
+    <row r="35" spans="1:19" ht="17.25">
       <c r="A35" s="5" t="s">
         <v>17</v>
       </c>
@@ -3660,7 +3260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="6">
         <v>1996</v>
       </c>
@@ -3691,44 +3291,17 @@
       <c r="J36" s="294">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K36" s="332">
-        <f>B36*B6</f>
-        <v>1822.576</v>
-      </c>
-      <c r="L36" s="332">
-        <f t="shared" ref="L36:S36" si="15">C36*C6</f>
-        <v>27.755999999999997</v>
-      </c>
-      <c r="M36" s="332">
-        <f t="shared" si="15"/>
-        <v>16.368000000000002</v>
-      </c>
-      <c r="N36" s="332">
-        <f t="shared" si="15"/>
-        <v>8.8659999999999997</v>
-      </c>
-      <c r="O36" s="332">
-        <f t="shared" si="15"/>
-        <v>154.71</v>
-      </c>
-      <c r="P36" s="332">
-        <f t="shared" si="15"/>
-        <v>9.7160000000000011</v>
-      </c>
-      <c r="Q36" s="332">
-        <f t="shared" si="15"/>
-        <v>1493.019</v>
-      </c>
-      <c r="R36" s="332">
-        <f t="shared" si="15"/>
-        <v>93.685000000000002</v>
-      </c>
-      <c r="S36" s="332">
-        <f t="shared" si="15"/>
-        <v>15.729999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K36" s="332"/>
+      <c r="L36" s="332"/>
+      <c r="M36" s="332"/>
+      <c r="N36" s="332"/>
+      <c r="O36" s="332"/>
+      <c r="P36" s="332"/>
+      <c r="Q36" s="332"/>
+      <c r="R36" s="332"/>
+      <c r="S36" s="332"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="6">
         <v>2001</v>
       </c>
@@ -3760,7 +3333,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="6">
         <v>2006</v>
       </c>
@@ -3792,7 +3365,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="6">
         <v>2011</v>
       </c>
@@ -3824,7 +3397,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="6">
         <v>2016</v>
       </c>
@@ -3855,156 +3428,115 @@
       <c r="J40" s="330">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K40" s="332">
-        <f>B40*B10</f>
-        <v>1271.79</v>
-      </c>
-      <c r="L40" s="332">
-        <f t="shared" ref="L40:S40" si="16">C40*C10</f>
-        <v>101.244</v>
-      </c>
-      <c r="M40" s="332">
-        <f t="shared" si="16"/>
-        <v>27.808</v>
-      </c>
-      <c r="N40" s="332">
-        <f t="shared" si="16"/>
-        <v>32.537999999999997</v>
-      </c>
-      <c r="O40" s="332">
-        <f t="shared" si="16"/>
-        <v>184.99</v>
-      </c>
-      <c r="P40" s="332">
-        <f t="shared" si="16"/>
-        <v>52.685999999999993</v>
-      </c>
-      <c r="Q40" s="332">
-        <f t="shared" si="16"/>
-        <v>676.37400000000002</v>
-      </c>
-      <c r="R40" s="332">
-        <f t="shared" si="16"/>
-        <v>144.14400000000001</v>
-      </c>
-      <c r="S40" s="332">
-        <f t="shared" si="16"/>
-        <v>50.881999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="334" t="s">
+      <c r="K40" s="332"/>
+      <c r="L40" s="332"/>
+      <c r="M40" s="332"/>
+      <c r="N40" s="332"/>
+      <c r="O40" s="332"/>
+      <c r="P40" s="332"/>
+      <c r="Q40" s="332"/>
+      <c r="R40" s="332"/>
+      <c r="S40" s="332"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1">
+      <c r="A42" s="336" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="335"/>
-      <c r="C42" s="335"/>
-      <c r="D42" s="335"/>
-      <c r="E42" s="335"/>
-      <c r="F42" s="335"/>
-      <c r="G42" s="335"/>
-      <c r="H42" s="335"/>
-      <c r="I42" s="335"/>
-      <c r="J42" s="335"/>
-      <c r="K42" s="332">
-        <f>SUM(K34,K40,K28,K16,K22)</f>
-        <v>16321.305</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="334" t="s">
+      <c r="B42" s="337"/>
+      <c r="C42" s="337"/>
+      <c r="D42" s="337"/>
+      <c r="E42" s="337"/>
+      <c r="F42" s="337"/>
+      <c r="G42" s="337"/>
+      <c r="H42" s="337"/>
+      <c r="I42" s="337"/>
+      <c r="J42" s="337"/>
+      <c r="K42" s="332"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1">
+      <c r="A43" s="336" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="335"/>
-      <c r="C43" s="335"/>
-      <c r="D43" s="335"/>
-      <c r="E43" s="335"/>
-      <c r="F43" s="335"/>
-      <c r="G43" s="335"/>
-      <c r="H43" s="335"/>
-      <c r="I43" s="335"/>
-      <c r="J43" s="335"/>
-      <c r="K43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="334" t="s">
+      <c r="B43" s="337"/>
+      <c r="C43" s="337"/>
+      <c r="D43" s="337"/>
+      <c r="E43" s="337"/>
+      <c r="F43" s="337"/>
+      <c r="G43" s="337"/>
+      <c r="H43" s="337"/>
+      <c r="I43" s="337"/>
+      <c r="J43" s="337"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1">
+      <c r="A44" s="336" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="335"/>
-      <c r="C44" s="335"/>
-      <c r="D44" s="335"/>
-      <c r="E44" s="335"/>
-      <c r="F44" s="335"/>
-      <c r="G44" s="335"/>
-      <c r="H44" s="335"/>
-      <c r="I44" s="335"/>
-      <c r="J44" s="335"/>
-      <c r="K44" s="332">
-        <f>SUM(K12,K18,K24,K30,K36)</f>
-        <v>16256.727000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="334" t="s">
+      <c r="B44" s="337"/>
+      <c r="C44" s="337"/>
+      <c r="D44" s="337"/>
+      <c r="E44" s="337"/>
+      <c r="F44" s="337"/>
+      <c r="G44" s="337"/>
+      <c r="H44" s="337"/>
+      <c r="I44" s="337"/>
+      <c r="J44" s="337"/>
+      <c r="K44" s="332"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1">
+      <c r="A45" s="336" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="335"/>
-      <c r="C45" s="335"/>
-      <c r="D45" s="335"/>
-      <c r="E45" s="335"/>
-      <c r="F45" s="335"/>
-      <c r="G45" s="335"/>
-      <c r="H45" s="335"/>
-      <c r="I45" s="335"/>
-      <c r="J45" s="335"/>
-    </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="334" t="s">
+      <c r="B45" s="337"/>
+      <c r="C45" s="337"/>
+      <c r="D45" s="337"/>
+      <c r="E45" s="337"/>
+      <c r="F45" s="337"/>
+      <c r="G45" s="337"/>
+      <c r="H45" s="337"/>
+      <c r="I45" s="337"/>
+      <c r="J45" s="337"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1">
+      <c r="A46" s="336" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="335"/>
-      <c r="C46" s="335"/>
-      <c r="D46" s="335"/>
-      <c r="E46" s="335"/>
-      <c r="F46" s="335"/>
-      <c r="G46" s="335"/>
-      <c r="H46" s="335"/>
-      <c r="I46" s="335"/>
-      <c r="J46" s="335"/>
-    </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="334" t="s">
+      <c r="B46" s="337"/>
+      <c r="C46" s="337"/>
+      <c r="D46" s="337"/>
+      <c r="E46" s="337"/>
+      <c r="F46" s="337"/>
+      <c r="G46" s="337"/>
+      <c r="H46" s="337"/>
+      <c r="I46" s="337"/>
+      <c r="J46" s="337"/>
+    </row>
+    <row r="47" spans="1:19" ht="15" customHeight="1">
+      <c r="A47" s="336" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="335"/>
-      <c r="C47" s="335"/>
-      <c r="D47" s="335"/>
-      <c r="E47" s="335"/>
-      <c r="F47" s="335"/>
-      <c r="G47" s="335"/>
-      <c r="H47" s="335"/>
-      <c r="I47" s="335"/>
-      <c r="J47" s="335"/>
-    </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="334" t="s">
+      <c r="B47" s="337"/>
+      <c r="C47" s="337"/>
+      <c r="D47" s="337"/>
+      <c r="E47" s="337"/>
+      <c r="F47" s="337"/>
+      <c r="G47" s="337"/>
+      <c r="H47" s="337"/>
+      <c r="I47" s="337"/>
+      <c r="J47" s="337"/>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1">
+      <c r="A48" s="336" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="335"/>
-      <c r="C48" s="335"/>
-      <c r="D48" s="335"/>
-      <c r="E48" s="335"/>
-      <c r="F48" s="335"/>
-      <c r="G48" s="335"/>
-      <c r="H48" s="335"/>
-      <c r="I48" s="335"/>
-      <c r="J48" s="335"/>
+      <c r="B48" s="337"/>
+      <c r="C48" s="337"/>
+      <c r="D48" s="337"/>
+      <c r="E48" s="337"/>
+      <c r="F48" s="337"/>
+      <c r="G48" s="337"/>
+      <c r="H48" s="337"/>
+      <c r="I48" s="337"/>
+      <c r="J48" s="337"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4018,4 +3550,1084 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:V17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" s="334" customFormat="1" ht="21">
+      <c r="B1" s="349" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
+      <c r="I1" s="350"/>
+      <c r="J1" s="350"/>
+      <c r="K1" s="351"/>
+      <c r="M1" s="349" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="350"/>
+      <c r="O1" s="350"/>
+      <c r="P1" s="350"/>
+      <c r="Q1" s="350"/>
+      <c r="R1" s="350"/>
+      <c r="S1" s="350"/>
+      <c r="T1" s="350"/>
+      <c r="U1" s="350"/>
+      <c r="V1" s="351"/>
+    </row>
+    <row r="2" spans="2:22" ht="31.5">
+      <c r="B2" s="352">
+        <v>2016</v>
+      </c>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="348"/>
+      <c r="I2" s="348"/>
+      <c r="J2" s="348"/>
+      <c r="K2" s="353"/>
+      <c r="L2" s="358"/>
+      <c r="M2" s="352">
+        <v>2016</v>
+      </c>
+      <c r="N2" s="348"/>
+      <c r="O2" s="348"/>
+      <c r="P2" s="348"/>
+      <c r="Q2" s="348"/>
+      <c r="R2" s="348"/>
+      <c r="S2" s="348"/>
+      <c r="T2" s="348"/>
+      <c r="U2" s="348"/>
+      <c r="V2" s="353"/>
+    </row>
+    <row r="3" spans="2:22" ht="48.75">
+      <c r="B3" s="354"/>
+      <c r="C3" s="338" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="338" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="338" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="338" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="338" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="338" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="338" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="338" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="355" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="360"/>
+      <c r="M3" s="354"/>
+      <c r="N3" s="338" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="338" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="338" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="338" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="338" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="338" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="338" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="338" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="355" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="356" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="339">
+        <v>7272.03</v>
+      </c>
+      <c r="D4" s="340">
+        <v>881.28300000000002</v>
+      </c>
+      <c r="E4" s="340">
+        <v>252.8</v>
+      </c>
+      <c r="F4" s="340">
+        <v>436.30499999999995</v>
+      </c>
+      <c r="G4" s="340">
+        <v>1542.5320000000002</v>
+      </c>
+      <c r="H4" s="340">
+        <v>412.70699999999994</v>
+      </c>
+      <c r="I4" s="340">
+        <v>1416.0059999999999</v>
+      </c>
+      <c r="J4" s="340">
+        <v>1311.0240000000001</v>
+      </c>
+      <c r="K4" s="341">
+        <v>1014.962</v>
+      </c>
+      <c r="L4" s="360"/>
+      <c r="M4" s="356" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="358">
+        <f>C4/$C9</f>
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="O4" s="367">
+        <f>D4/$D9</f>
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="P4" s="367">
+        <f>E4/E$9</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q4" s="367">
+        <f t="shared" ref="Q4:V8" si="0">F4/F$9</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="R4" s="367">
+        <f t="shared" si="0"/>
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="S4" s="367">
+        <f t="shared" si="0"/>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="T4" s="367">
+        <f t="shared" si="0"/>
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="U4" s="367">
+        <f t="shared" si="0"/>
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="V4" s="368">
+        <f>K4/K$9</f>
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="24.75">
+      <c r="B5" s="356" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="342">
+        <v>1206.57</v>
+      </c>
+      <c r="D5" s="343">
+        <v>237.00299999999999</v>
+      </c>
+      <c r="E5" s="343">
+        <v>111.232</v>
+      </c>
+      <c r="F5" s="343">
+        <v>50.286000000000001</v>
+      </c>
+      <c r="G5" s="343">
+        <v>352.904</v>
+      </c>
+      <c r="H5" s="343">
+        <v>240.01400000000001</v>
+      </c>
+      <c r="I5" s="343">
+        <v>92.453999999999994</v>
+      </c>
+      <c r="J5" s="343">
+        <v>41.183999999999997</v>
+      </c>
+      <c r="K5" s="344">
+        <v>73.644999999999996</v>
+      </c>
+      <c r="L5" s="360"/>
+      <c r="M5" s="356" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="360">
+        <f>C5/$C9</f>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="O5" s="359">
+        <f>D5/$D9</f>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="P5" s="359">
+        <f t="shared" ref="P5:P8" si="1">E5/E$9</f>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Q5" s="359">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="R5" s="359">
+        <f t="shared" si="0"/>
+        <v>0.124</v>
+      </c>
+      <c r="S5" s="359">
+        <f t="shared" si="0"/>
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="T5" s="359">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="U5" s="359">
+        <f t="shared" si="0"/>
+        <v>2.3999999999999997E-2</v>
+      </c>
+      <c r="V5" s="369">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="356" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="342">
+        <v>5641.53</v>
+      </c>
+      <c r="D6" s="343">
+        <v>865.17600000000004</v>
+      </c>
+      <c r="E6" s="343">
+        <v>830.44800000000009</v>
+      </c>
+      <c r="F6" s="343">
+        <v>915.50099999999998</v>
+      </c>
+      <c r="G6" s="343">
+        <v>543.58600000000001</v>
+      </c>
+      <c r="H6" s="343">
+        <v>2133.7829999999999</v>
+      </c>
+      <c r="I6" s="343">
+        <v>116.78400000000001</v>
+      </c>
+      <c r="J6" s="343">
+        <v>87.515999999999991</v>
+      </c>
+      <c r="K6" s="344">
+        <v>145.95099999999999</v>
+      </c>
+      <c r="L6" s="360"/>
+      <c r="M6" s="356" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="360">
+        <f>C6/$C9</f>
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="O6" s="359">
+        <f>D6/$D9</f>
+        <v>0.376</v>
+      </c>
+      <c r="P6" s="359">
+        <f t="shared" si="1"/>
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="Q6" s="359">
+        <f t="shared" si="0"/>
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="R6" s="359">
+        <f t="shared" si="0"/>
+        <v>0.191</v>
+      </c>
+      <c r="S6" s="359">
+        <f t="shared" si="0"/>
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="T6" s="359">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="U6" s="359">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="V6" s="369">
+        <f>K6/K$9</f>
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="356" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="342">
+        <v>929.38499999999999</v>
+      </c>
+      <c r="D7" s="343">
+        <v>213.99299999999999</v>
+      </c>
+      <c r="E7" s="343">
+        <v>40.448</v>
+      </c>
+      <c r="F7" s="343">
+        <v>41.411999999999999</v>
+      </c>
+      <c r="G7" s="343">
+        <v>221.988</v>
+      </c>
+      <c r="H7" s="343">
+        <v>90.736999999999995</v>
+      </c>
+      <c r="I7" s="343">
+        <v>131.38200000000001</v>
+      </c>
+      <c r="J7" s="343">
+        <v>130.416</v>
+      </c>
+      <c r="K7" s="344">
+        <v>53.56</v>
+      </c>
+      <c r="L7" s="345"/>
+      <c r="M7" s="356" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="360">
+        <f>C7/$C9</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="O7" s="359">
+        <f>D7/$D9</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="P7" s="359">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Q7" s="359">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="R7" s="359">
+        <f t="shared" si="0"/>
+        <v>7.8E-2</v>
+      </c>
+      <c r="S7" s="359">
+        <f t="shared" si="0"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="T7" s="359">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="U7" s="359">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="V7" s="369">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="356" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="342">
+        <v>1271.79</v>
+      </c>
+      <c r="D8" s="343">
+        <v>101.244</v>
+      </c>
+      <c r="E8" s="343">
+        <v>27.808</v>
+      </c>
+      <c r="F8" s="343">
+        <v>32.537999999999997</v>
+      </c>
+      <c r="G8" s="343">
+        <v>184.99</v>
+      </c>
+      <c r="H8" s="343">
+        <v>52.685999999999993</v>
+      </c>
+      <c r="I8" s="343">
+        <v>676.37400000000002</v>
+      </c>
+      <c r="J8" s="343">
+        <v>144.14400000000001</v>
+      </c>
+      <c r="K8" s="344">
+        <v>50.881999999999998</v>
+      </c>
+      <c r="L8" s="364"/>
+      <c r="M8" s="356" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="360">
+        <f>C8/$C9</f>
+        <v>7.8E-2</v>
+      </c>
+      <c r="O8" s="359">
+        <f>D8/$D9</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="P8" s="359">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q8" s="359">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R8" s="359">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="S8" s="359">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T8" s="359">
+        <f t="shared" si="0"/>
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="U8" s="359">
+        <f t="shared" si="0"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="V8" s="369">
+        <f>K8/K$9</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="24.75">
+      <c r="B9" s="356" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="361">
+        <v>16305</v>
+      </c>
+      <c r="D9" s="362">
+        <v>2301</v>
+      </c>
+      <c r="E9" s="362">
+        <v>1264</v>
+      </c>
+      <c r="F9" s="362">
+        <v>1479</v>
+      </c>
+      <c r="G9" s="362">
+        <v>2846</v>
+      </c>
+      <c r="H9" s="362">
+        <v>2927</v>
+      </c>
+      <c r="I9" s="362">
+        <v>2433</v>
+      </c>
+      <c r="J9" s="362">
+        <v>1716</v>
+      </c>
+      <c r="K9" s="363">
+        <v>1339</v>
+      </c>
+      <c r="M9" s="365" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="366">
+        <f>SUM(N4:N8)</f>
+        <v>1.0010000000000001</v>
+      </c>
+      <c r="O9" s="370">
+        <f t="shared" ref="O9:V9" si="2">SUM(O4:O8)</f>
+        <v>0.999</v>
+      </c>
+      <c r="P9" s="370">
+        <f t="shared" si="2"/>
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="Q9" s="370">
+        <f t="shared" si="2"/>
+        <v>0.998</v>
+      </c>
+      <c r="R9" s="370">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S9" s="370">
+        <f t="shared" si="2"/>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="T9" s="370">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="370">
+        <f t="shared" si="2"/>
+        <v>0.999</v>
+      </c>
+      <c r="V9" s="371">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="31.5">
+      <c r="B10" s="352">
+        <v>1996</v>
+      </c>
+      <c r="C10" s="348"/>
+      <c r="D10" s="348"/>
+      <c r="E10" s="348"/>
+      <c r="F10" s="348"/>
+      <c r="G10" s="348"/>
+      <c r="H10" s="348"/>
+      <c r="I10" s="348"/>
+      <c r="J10" s="348"/>
+      <c r="K10" s="353"/>
+      <c r="M10" s="352">
+        <v>1996</v>
+      </c>
+      <c r="N10" s="348"/>
+      <c r="O10" s="348"/>
+      <c r="P10" s="348"/>
+      <c r="Q10" s="348"/>
+      <c r="R10" s="348"/>
+      <c r="S10" s="348"/>
+      <c r="T10" s="348"/>
+      <c r="U10" s="348"/>
+      <c r="V10" s="353"/>
+    </row>
+    <row r="11" spans="2:22" ht="48.75">
+      <c r="B11" s="354"/>
+      <c r="C11" s="338" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="338" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="338" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="338" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="338" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="338" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="338" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="338" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="355" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="354"/>
+      <c r="N11" s="338" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="338" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="338" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="338" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="338" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="338" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="338" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="338" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" s="355" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" s="356" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="339">
+        <v>7941.2240000000002</v>
+      </c>
+      <c r="D12" s="340">
+        <v>798.75599999999997</v>
+      </c>
+      <c r="E12" s="340">
+        <v>253.70400000000001</v>
+      </c>
+      <c r="F12" s="340">
+        <v>377.20800000000003</v>
+      </c>
+      <c r="G12" s="340">
+        <v>1529.91</v>
+      </c>
+      <c r="H12" s="340">
+        <v>342.48899999999998</v>
+      </c>
+      <c r="I12" s="340">
+        <v>1908.432</v>
+      </c>
+      <c r="J12" s="340">
+        <v>1809.72</v>
+      </c>
+      <c r="K12" s="341">
+        <v>925.65</v>
+      </c>
+      <c r="M12" s="356" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="358">
+        <f>(C12/C$17)</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="O12" s="367">
+        <f t="shared" ref="O12:V16" si="3">(D12/D$17)</f>
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="P12" s="367">
+        <f t="shared" si="3"/>
+        <v>0.248</v>
+      </c>
+      <c r="Q12" s="367">
+        <f t="shared" si="3"/>
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="R12" s="367">
+        <f t="shared" si="3"/>
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="S12" s="367">
+        <f t="shared" si="3"/>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="T12" s="367">
+        <f t="shared" si="3"/>
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="U12" s="367">
+        <f t="shared" si="3"/>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="V12" s="368">
+        <f t="shared" si="3"/>
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="24.75">
+      <c r="B13" s="356" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="342">
+        <v>1285.567</v>
+      </c>
+      <c r="D13" s="343">
+        <v>234.38399999999999</v>
+      </c>
+      <c r="E13" s="343">
+        <v>96.162000000000006</v>
+      </c>
+      <c r="F13" s="343">
+        <v>33.045999999999999</v>
+      </c>
+      <c r="G13" s="343">
+        <v>323.745</v>
+      </c>
+      <c r="H13" s="343">
+        <v>257.47399999999999</v>
+      </c>
+      <c r="I13" s="343">
+        <v>263.23200000000003</v>
+      </c>
+      <c r="J13" s="343">
+        <v>29.704999999999998</v>
+      </c>
+      <c r="K13" s="344">
+        <v>54.449999999999996</v>
+      </c>
+      <c r="M13" s="356" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="360">
+        <f t="shared" ref="N13:N16" si="4">(C13/C$17)</f>
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="O13" s="359">
+        <f t="shared" si="3"/>
+        <v>0.152</v>
+      </c>
+      <c r="P13" s="359">
+        <f t="shared" si="3"/>
+        <v>9.4E-2</v>
+      </c>
+      <c r="Q13" s="359">
+        <f t="shared" si="3"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="R13" s="359">
+        <f t="shared" si="3"/>
+        <v>0.113</v>
+      </c>
+      <c r="S13" s="359">
+        <f t="shared" si="3"/>
+        <v>0.106</v>
+      </c>
+      <c r="T13" s="359">
+        <f t="shared" si="3"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="U13" s="359">
+        <f t="shared" si="3"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="V13" s="369">
+        <f t="shared" si="3"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" s="356" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="342">
+        <v>4214.7070000000003</v>
+      </c>
+      <c r="D14" s="343">
+        <v>377.79</v>
+      </c>
+      <c r="E14" s="343">
+        <v>640.39800000000002</v>
+      </c>
+      <c r="F14" s="343">
+        <v>373.98400000000004</v>
+      </c>
+      <c r="G14" s="343">
+        <v>507.10499999999996</v>
+      </c>
+      <c r="H14" s="343">
+        <v>1773.1699999999998</v>
+      </c>
+      <c r="I14" s="343">
+        <v>259.11900000000003</v>
+      </c>
+      <c r="J14" s="343">
+        <v>114.25</v>
+      </c>
+      <c r="K14" s="344">
+        <v>170.60999999999999</v>
+      </c>
+      <c r="M14" s="356" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="360">
+        <f t="shared" si="4"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="O14" s="359">
+        <f t="shared" si="3"/>
+        <v>0.24500000000000002</v>
+      </c>
+      <c r="P14" s="359">
+        <f t="shared" si="3"/>
+        <v>0.626</v>
+      </c>
+      <c r="Q14" s="359">
+        <f t="shared" si="3"/>
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="R14" s="359">
+        <f t="shared" si="3"/>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="S14" s="359">
+        <f t="shared" si="3"/>
+        <v>0.73</v>
+      </c>
+      <c r="T14" s="359">
+        <f t="shared" si="3"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="U14" s="359">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="V14" s="369">
+        <f t="shared" si="3"/>
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="356" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="342">
+        <v>992.65300000000002</v>
+      </c>
+      <c r="D15" s="343">
+        <v>103.31400000000001</v>
+      </c>
+      <c r="E15" s="343">
+        <v>17.391000000000002</v>
+      </c>
+      <c r="F15" s="343">
+        <v>12.896000000000001</v>
+      </c>
+      <c r="G15" s="343">
+        <v>349.53</v>
+      </c>
+      <c r="H15" s="343">
+        <v>46.150999999999996</v>
+      </c>
+      <c r="I15" s="343">
+        <v>185.08499999999998</v>
+      </c>
+      <c r="J15" s="343">
+        <v>237.64</v>
+      </c>
+      <c r="K15" s="344">
+        <v>42.35</v>
+      </c>
+      <c r="M15" s="356" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="360">
+        <f>(C15/C$17)</f>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="O15" s="359">
+        <f t="shared" si="3"/>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="P15" s="359">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Q15" s="359">
+        <f t="shared" si="3"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="R15" s="359">
+        <f t="shared" si="3"/>
+        <v>0.122</v>
+      </c>
+      <c r="S15" s="359">
+        <f t="shared" si="3"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="T15" s="359">
+        <f t="shared" si="3"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="U15" s="359">
+        <f t="shared" si="3"/>
+        <v>0.104</v>
+      </c>
+      <c r="V15" s="369">
+        <f t="shared" si="3"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" s="356" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="342">
+        <v>1822.576</v>
+      </c>
+      <c r="D16" s="343">
+        <v>27.755999999999997</v>
+      </c>
+      <c r="E16" s="343">
+        <v>16.368000000000002</v>
+      </c>
+      <c r="F16" s="343">
+        <v>8.8659999999999997</v>
+      </c>
+      <c r="G16" s="343">
+        <v>154.71</v>
+      </c>
+      <c r="H16" s="343">
+        <v>9.7160000000000011</v>
+      </c>
+      <c r="I16" s="343">
+        <v>1493.019</v>
+      </c>
+      <c r="J16" s="343">
+        <v>93.685000000000002</v>
+      </c>
+      <c r="K16" s="344">
+        <v>15.729999999999999</v>
+      </c>
+      <c r="M16" s="356" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="360">
+        <f>(C16/C$17)</f>
+        <v>0.112</v>
+      </c>
+      <c r="O16" s="359">
+        <f t="shared" si="3"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="P16" s="359">
+        <f t="shared" si="3"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="Q16" s="359">
+        <f t="shared" si="3"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R16" s="359">
+        <f t="shared" si="3"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="S16" s="359">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="T16" s="359">
+        <f t="shared" si="3"/>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="U16" s="359">
+        <f t="shared" si="3"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="V16" s="369">
+        <f t="shared" si="3"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="357" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="345">
+        <v>16273</v>
+      </c>
+      <c r="D17" s="346">
+        <v>1542</v>
+      </c>
+      <c r="E17" s="346">
+        <v>1023</v>
+      </c>
+      <c r="F17" s="346">
+        <v>806</v>
+      </c>
+      <c r="G17" s="346">
+        <v>2865</v>
+      </c>
+      <c r="H17" s="346">
+        <v>2429</v>
+      </c>
+      <c r="I17" s="346">
+        <v>4113</v>
+      </c>
+      <c r="J17" s="346">
+        <v>2285</v>
+      </c>
+      <c r="K17" s="347">
+        <v>1210</v>
+      </c>
+      <c r="M17" s="357" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="366">
+        <f>SUM(N12:N16)</f>
+        <v>0.999</v>
+      </c>
+      <c r="O17" s="370">
+        <f t="shared" ref="O17:V17" si="5">SUM(O12:O16)</f>
+        <v>1</v>
+      </c>
+      <c r="P17" s="370">
+        <f t="shared" si="5"/>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q17" s="370">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="370">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S17" s="370">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T17" s="370">
+        <f t="shared" si="5"/>
+        <v>0.999</v>
+      </c>
+      <c r="U17" s="370">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="371">
+        <f t="shared" si="5"/>
+        <v>0.99900000000000011</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="M10:V10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>